--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0287 - Admin SLN mengajukan data Non Sales.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0287 - Admin SLN mengajukan data Non Sales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155C0432-153A-49DC-B529-57CB7C24495A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7477B963-A044-4BC8-B48D-46E60540F5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0287" sheetId="2" r:id="rId1"/>
@@ -101,25 +101,27 @@
     <t>Admin SLN mengajukan data Non Sales</t>
   </si>
   <si>
+    <t xml:space="preserve">•Saat input data field NPP dapat memilih semua Sales
+•Saat Input data status di monitoring “Pengajuan”
+Pada report Status Sales berubah
+</t>
+  </si>
+  <si>
+    <t>Admin SLN</t>
+  </si>
+  <si>
+    <t>SLN/91010SS</t>
+  </si>
+  <si>
     <t xml:space="preserve"> -Login sebagai Admin SLN
 -Pilih menu monitoring di fitur non sales update
 -Klik button add 
 -Isi form
 -Klik save
 -Setelah berhasil save 
--Kirim Usulan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Saat input data field NPP dapat memilih semua Sales
-•Saat Input data status di monitoring “Pengajuan”
-Pada report Status Sales berubah
-</t>
-  </si>
-  <si>
-    <t>Admin SLN</t>
-  </si>
-  <si>
-    <t>SLN/91010SS</t>
+-Kirim Usulan
+-Pilih menu report di fitur non sales update
+-Generate data</t>
   </si>
 </sst>
 </file>
@@ -186,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -210,9 +212,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -220,10 +219,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,106 +573,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="16">
         <v>52326</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="16">
+        <v>47877</v>
+      </c>
+      <c r="M2" s="18" t="str">
+        <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
+        <v>2022-09-02</v>
+      </c>
+      <c r="N2" s="18" t="str">
+        <f ca="1">TEXT(TODAY()+30,"yyyy-mm-dd")</f>
+        <v>2022-10-02</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="16">
-        <v>41730</v>
-      </c>
-      <c r="M2" s="15" t="str">
-        <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>2022-08-31</v>
-      </c>
-      <c r="N2" s="15" t="str">
-        <f ca="1">TEXT(TODAY()+30,"yyyy-mm-dd")</f>
-        <v>2022-09-30</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="19" t="s">
         <v>19</v>
       </c>
       <c r="R2" s="7"/>
@@ -667,21 +680,21 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="14"/>
+      <c r="I3" s="13"/>
       <c r="L3" s="9"/>
       <c r="O3" s="1"/>
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -690,8 +703,8 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="1"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="2"/>
